--- a/office-scripts-script-recorder-demo.xlsx
+++ b/office-scripts-script-recorder-demo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97A35422-BA05-4448-A118-3D70A24D94E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F621D0F-78EE-49EB-B39F-4DA58346D481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="16826" windowHeight="11280" xr2:uid="{3B985D05-9C88-42D2-9EE4-4F9BE763307C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="report" sheetId="3" r:id="rId1"/>
+    <sheet name="report-2" sheetId="4" r:id="rId2"/>
+    <sheet name="relative-vs-absolute" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -85,6 +86,42 @@
   </si>
   <si>
     <t>Email management</t>
+  </si>
+  <si>
+    <t>Grace Lee</t>
+  </si>
+  <si>
+    <t>Code review</t>
+  </si>
+  <si>
+    <t>Henry Wright</t>
+  </si>
+  <si>
+    <t>Team meeting</t>
+  </si>
+  <si>
+    <t>Isabella Green</t>
+  </si>
+  <si>
+    <t>Feature development</t>
+  </si>
+  <si>
+    <t>Jack Turner</t>
+  </si>
+  <si>
+    <t>Bug fixing</t>
+  </si>
+  <si>
+    <t>Karen Young</t>
+  </si>
+  <si>
+    <t>Market research</t>
+  </si>
+  <si>
+    <t>Liam Harris</t>
+  </si>
+  <si>
+    <t>Email correspondence</t>
   </si>
 </sst>
 </file>
@@ -120,16 +157,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -142,19 +196,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D583A0C-9C6B-4C9F-BC1F-A43A467322F4}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7" xr:uid="{1D583A0C-9C6B-4C9F-BC1F-A43A467322F4}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{36E87292-01A0-4D18-9638-F7BC435DFC69}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{A9DD9B0B-5F0B-49AC-AB5C-E1BB5E01A355}" name="Date" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{A1FD109B-1274-411D-B2EE-D950A76130F1}" name="Task"/>
-    <tableColumn id="4" xr3:uid="{E62AE191-D8E4-44C4-817B-1A265DFD6940}" name="Hours Spent"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,27 +514,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA5270B-DC93-40DE-AD77-9FE9295F1567}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FD8DE4-E1E7-4C51-85F9-A22DC75B63BF}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="1" max="1" width="10.03515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.9609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.73828125" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.18359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -503,11 +542,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>45505</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45505</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -517,11 +556,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>45505</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45505</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -531,25 +570,25 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>45506</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45506</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="A5" t="s">
+      <c r="A5">
+        <v>45506</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45506</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -559,11 +598,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="A6" t="s">
+      <c r="A6">
+        <v>45507</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45507</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -573,11 +612,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="A7" t="s">
+      <c r="A7">
+        <v>45507</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45507</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -588,33 +627,134 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063361EC-75EE-4065-B973-00DCACC4DEE0}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677139DF-2FB4-4834-BC4D-3B8DF139B0D2}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.85"/>
+  <cols>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.58984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.48046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="A1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="B2">
-        <v>10</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A2">
+        <v>45508</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A3">
+        <v>45508</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A4">
+        <v>45509</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A5">
+        <v>45509</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A6">
+        <v>45510</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="A7">
+        <v>45510</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9624036-7AA9-4662-AC4D-1CC88DC0E0B5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.85"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>